--- a/biology/Médecine/Hugh_Crichton-Miller/Hugh_Crichton-Miller.xlsx
+++ b/biology/Médecine/Hugh_Crichton-Miller/Hugh_Crichton-Miller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hugh Crichton-Miller (Gênes, 5 février 1877 — Londres, 1er janvier 1959) est un psychiatre écossais, fondateur en 1920 de la Tavistock Clinic à Londres, premier centre de soins d'orientation psychanalytique de Grande-Bretagne.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît à Gênes où son père est pasteur de l'église presbytérienne écossaise. À 12 ans, il est envoyé à Édimbourg poursuivre ses études secondaires au Fettes College. Il fait ensuite ses études de médecine à l'université d'Édimbourg puis à l'université de Pavie. 
-Il s'intéresse particulièrement aux névroses de guerre, les shell-shocks, et fonde dans cette perspective la Tavistock Clinic, en 1920, 51 Tavistock Square, dans le quartier Bloomsbury, à Londres[1]. Crichton-Miller est aussi le vice-président de l'International General Medical Society for Psychotherapy.
+Il s'intéresse particulièrement aux névroses de guerre, les shell-shocks, et fonde dans cette perspective la Tavistock Clinic, en 1920, 51 Tavistock Square, dans le quartier Bloomsbury, à Londres. Crichton-Miller est aussi le vice-président de l'International General Medical Society for Psychotherapy.
 </t>
         </is>
       </c>
